--- a/New EM Bonds v2.xlsx
+++ b/New EM Bonds v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\53A. HY Bonds Basis Email\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9760A-932D-41DD-9544-C228082B4D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D92C49B-49E4-4F6A-AEC8-B274F4142D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11897,7 +11897,7 @@
   <dimension ref="A1:S155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
